--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxHead.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxHead.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F69DDA-F019-4BC6-8694-F76CD9A4B7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -150,11 +151,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.正常
-1.整批處理中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate,BatchNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,23 +274,29 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:BatchStatus
-0.待檢核
-1.檢核有誤
-2.檢核正常
-3.入帳未完
-4.入帳完成
-8.已刪除</t>
-  </si>
-  <si>
     <t>L4200,L4210,L4450,BS020</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.BatchStatus
+0:待檢核
+1:檢核有誤
+2:檢核正常
+3:入帳未完
+4:入帳完成
+8:已刪除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常
+1:整批處理中</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -553,7 +555,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,6 +646,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -679,6 +698,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -878,7 +914,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
@@ -906,7 +942,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -987,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>26</v>
@@ -1005,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>27</v>
@@ -1017,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1061,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>33</v>
@@ -1079,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>30</v>
@@ -1111,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1137,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>20</v>
@@ -1149,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1157,20 +1193,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1178,19 +1214,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="22">
         <v>6</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="23"/>
     </row>
@@ -1199,20 +1235,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1220,22 +1256,22 @@
         <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="22">
         <v>6</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1284,35 +1320,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
